--- a/Server_Inventory_Linux.xlsx
+++ b/Server_Inventory_Linux.xlsx
@@ -510,8 +510,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -579,7 +579,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="4">
-        <v>44154.875</v>
+        <v>44184.875</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -626,7 +626,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="4">
-        <v>44154.875</v>
+        <v>44185.875</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -673,7 +673,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="4">
-        <v>44154.875</v>
+        <v>44186.875</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="4">
-        <v>44154.875</v>
+        <v>44187.875</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -767,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="4">
-        <v>44154.875</v>
+        <v>44188.875</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
